--- a/coefficients/2021/01 Example Excel Book.xlsx
+++ b/coefficients/2021/01 Example Excel Book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinsmith/Projects/Other/qcdr/coefficients/2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keithrichards/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{948B7B7E-ADBB-7544-AA3E-91F24C85E727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6BA253-DBB1-B044-93D3-46E6BB5B39DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19280" yWindow="4460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient Data" sheetId="1" r:id="rId1"/>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -778,8 +778,8 @@
         <v>-0.31783463573585857</v>
       </c>
       <c r="N2" s="11">
-        <f>N7</f>
-        <v>0.19456427805637933</v>
+        <f t="shared" ref="N2:N3" si="1">(M2 + 1) / 2</f>
+        <v>0.34108268213207071</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>15</v>
@@ -822,8 +822,8 @@
         <v>-0.78547732011481242</v>
       </c>
       <c r="N3" s="11">
-        <f>(M2 + 1) / 2</f>
-        <v>0.34108268213207071</v>
+        <f t="shared" si="1"/>
+        <v>0.10726133994259379</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -863,7 +863,7 @@
         <v>-0.8556090137052772</v>
       </c>
       <c r="N4" s="11">
-        <f t="shared" ref="N4:N26" si="1">(M4 + 1) / 2</f>
+        <f>(M4 + 1) / 2</f>
         <v>7.21954931473614E-2</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -910,7 +910,7 @@
         <v>-0.68139376767808313</v>
       </c>
       <c r="N5" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N4:N26" si="2">(M5 + 1) / 2</f>
         <v>0.15930311616095844</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -957,7 +957,7 @@
         <v>0.21042482277891406</v>
       </c>
       <c r="N6" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60521241138945703</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -1004,7 +1004,7 @@
         <v>-0.61087144388724135</v>
       </c>
       <c r="N7" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19456427805637933</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -1051,7 +1051,7 @@
         <v>-0.53534050281208534</v>
       </c>
       <c r="N8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23232974859395733</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -1098,7 +1098,7 @@
         <v>0.44701875317159467</v>
       </c>
       <c r="N9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.72350937658579739</v>
       </c>
       <c r="P9" s="1" t="s">
@@ -1145,7 +1145,7 @@
         <v>0.55517565959915938</v>
       </c>
       <c r="N10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.77758782979957974</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -1192,7 +1192,7 @@
         <v>-0.39777004790845327</v>
       </c>
       <c r="N11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30111497604577336</v>
       </c>
       <c r="P11" s="1" t="s">
@@ -1239,7 +1239,7 @@
         <v>-0.22606358073615002</v>
       </c>
       <c r="N12" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.38696820963192502</v>
       </c>
       <c r="P12" s="1" t="s">
@@ -1286,7 +1286,7 @@
         <v>-0.29171436683752466</v>
       </c>
       <c r="N13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3541428165812377</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -1333,7 +1333,7 @@
         <v>6.5566081790664699E-2</v>
       </c>
       <c r="N14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.53278304089533235</v>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
         <v>-0.88547341963483994</v>
       </c>
       <c r="N15" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7263290182580029E-2</v>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
         <v>-0.86495937938659673</v>
       </c>
       <c r="N16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7520310306701636E-2</v>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
         <v>-0.82440193017022445</v>
       </c>
       <c r="N17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7799034914887775E-2</v>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
         <v>-0.75420807422414715</v>
       </c>
       <c r="N18" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12289596288792642</v>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
         <v>-0.75872077402090132</v>
       </c>
       <c r="N19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12063961298954934</v>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
         <v>0.20373231853678742</v>
       </c>
       <c r="N20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60186615926839371</v>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
         <v>-0.35150945807022238</v>
       </c>
       <c r="N21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32424527096488881</v>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
         <v>-0.26875005783088768</v>
       </c>
       <c r="N22" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36562497108455616</v>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
         <v>-0.19717718466942397</v>
       </c>
       <c r="N23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.40141140766528804</v>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
         <v>-0.14260404933765794</v>
       </c>
       <c r="N24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42869797533117104</v>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
         <v>0.2519198805091194</v>
       </c>
       <c r="N25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.6259599402545597</v>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
         <v>-0.27904877576688525</v>
       </c>
       <c r="N26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36047561211655738</v>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="N30" s="13">
         <f>AVERAGE(N2:N26)</f>
-        <v>0.3375903122017308</v>
+        <v>0.33409819467717933</v>
       </c>
       <c r="P30" s="1">
         <f>M31 / COUNT(M2:M26)</f>
@@ -1897,11 +1897,11 @@
       </c>
       <c r="N31" s="13">
         <f>SUM(N2:N26)</f>
-        <v>8.4397578050432696</v>
+        <v>8.3524548669294827</v>
       </c>
       <c r="P31" s="13">
         <f>N31/COUNT(N2:N26)</f>
-        <v>0.3375903122017308</v>
+        <v>0.33409819467717933</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>94</v>
